--- a/2COURSE/2SEM/MathStat/tasks/task2/idz2_var518.xlsx
+++ b/2COURSE/2SEM/MathStat/tasks/task2/idz2_var518.xlsx
@@ -8,56 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\graev\OneDrive\Рабочий стол\ITMO\2COURSE\2SEM\MathStat\tasks\task2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989CEFAB-B227-4372-AF8A-167B9F068367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF626D8-7D58-4917-B403-FBCC718BBEDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{F11645F6-F22F-44A3-90A6-9EDD6923D85F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">(Лист1!$H$24,Лист1!$J$24)</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">(Лист1!$H$25,Лист1!$J$25)</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">(Лист1!$H$34,Лист1!$J$34)</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">(Лист1!$H$35,Лист1!$J$35)</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">(Лист1!$H$36,Лист1!$J$36)</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">(Лист1!$H$37,Лист1!$J$37)</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">(Лист1!$H$38,Лист1!$J$38)</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">(Лист1!$H$39,Лист1!$J$39)</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">(Лист1!$H$40,Лист1!$J$40)</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">(Лист1!$H$41,Лист1!$J$41)</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">(Лист1!$H$42,Лист1!$J$42)</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">(Лист1!$H$43,Лист1!$J$43)</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">(Лист1!$H$26,Лист1!$J$26)</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">(Лист1!$H$44,Лист1!$J$44)</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">(Лист1!$H$45,Лист1!$J$45)</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">(Лист1!$H$46,Лист1!$J$46)</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">(Лист1!$H$47,Лист1!$J$47)</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">(Лист1!$H$48,Лист1!$J$48)</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">(Лист1!$H$49,Лист1!$J$49)</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">(Лист1!$H$50,Лист1!$J$50)</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">(Лист1!$H$51,Лист1!$J$51)</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">(Лист1!$H$52,Лист1!$J$52)</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">(Лист1!$H$53,Лист1!$J$53)</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">(Лист1!$H$27,Лист1!$J$27)</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">(Лист1!$H$54,Лист1!$J$54)</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">(Лист1!$H$55,Лист1!$J$55)</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">(Лист1!$H$56,Лист1!$J$56)</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">(Лист1!$H$57,Лист1!$J$57)</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">(Лист1!$H$58,Лист1!$J$58)</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">(Лист1!$H$59,Лист1!$J$59)</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">(Лист1!$H$60,Лист1!$J$60)</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">(Лист1!$H$61,Лист1!$J$61)</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">(Лист1!$H$28,Лист1!$J$28)</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">(Лист1!$H$29,Лист1!$J$29)</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">(Лист1!$H$30,Лист1!$J$30)</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">(Лист1!$H$31,Лист1!$J$31)</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">(Лист1!$H$32,Лист1!$J$32)</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">(Лист1!$H$33,Лист1!$J$33)</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -148,13 +105,7 @@
     <t>от</t>
   </si>
   <si>
-    <t>0,644-3*1,293</t>
-  </si>
-  <si>
     <t>до</t>
-  </si>
-  <si>
-    <t>0,644+3*1,293</t>
   </si>
   <si>
     <t>округлим и получим</t>
@@ -183,13 +134,19 @@
   <si>
     <t>см ниже</t>
   </si>
+  <si>
+    <t>0,644-3*1,101</t>
+  </si>
+  <si>
+    <t>0,644+3*1,101</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -307,22 +264,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -435,246 +390,222 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$H$24:$H$61</c:f>
+              <c:f>Лист1!$H$24:$H$57</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-3.2</c:v>
+                  <c:v>-2.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8</c:v>
+                  <c:v>-2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.6</c:v>
+                  <c:v>-2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4</c:v>
+                  <c:v>-1.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2000000000000002</c:v>
+                  <c:v>-1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8</c:v>
+                  <c:v>-1.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6</c:v>
+                  <c:v>-1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.8</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.6</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.4</c:v>
+                  <c:v>9.9999999999999603E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6000000000000099</c:v>
+                  <c:v>3.1000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.80000000000001</c:v>
+                  <c:v>3.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0000000000000102</c:v>
+                  <c:v>3.5000000000000102</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000099</c:v>
+                  <c:v>3.7000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4000000000000101</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.6000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.0000000000000098</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.2000000000000099</c:v>
+                  <c:v>3.9000000000000101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$I$24:$I$61</c:f>
+              <c:f>Лист1!$I$24:$I$57</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>3.7261964282331887E-3</c:v>
+                  <c:v>1.0908107709772684E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8297096016993229E-3</c:v>
+                  <c:v>1.6075762055329006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9052166180639079E-3</c:v>
+                  <c:v>2.313183635603944E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3281846133132826E-2</c:v>
+                  <c:v>3.249862924418323E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9341439408112327E-2</c:v>
+                  <c:v>4.4579620338978013E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7500179496219471E-2</c:v>
+                  <c:v>5.9706838791224875E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8176723773211671E-2</c:v>
+                  <c:v>7.8077910141273507E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.17461654670524E-2</c:v>
+                  <c:v>9.9689329042548611E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.8481628653106294E-2</c:v>
+                  <c:v>0.12427551049533855</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.848840721488796E-2</c:v>
+                  <c:v>0.15126513132105585</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11163877583554221</c:v>
+                  <c:v>0.17976638779756962</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.13751818871003188</c:v>
+                  <c:v>0.20859050959726977</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1653947087089164</c:v>
+                  <c:v>0.23631810123430055</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.19422246857158978</c:v>
+                  <c:v>0.26140616278275097</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.22268641211197482</c:v>
+                  <c:v>0.28232611096906557</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.24928971238104491</c:v>
+                  <c:v>0.29771633200277886</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27247796378248756</c:v>
+                  <c:v>0.30652836143545281</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.29078687747949916</c:v>
+                  <c:v>0.30814495219710408</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.30299440769336838</c:v>
+                  <c:v>0.3024515692462334</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.30825548425266469</c:v>
+                  <c:v>0.28984980773114688</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.30619874138802611</c:v>
+                  <c:v>0.27121055113019416</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.29696986436590961</c:v>
+                  <c:v>0.24777445869307557</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.28121452597799629</c:v>
+                  <c:v>0.22101557570410668</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.26000368897855969</c:v>
+                  <c:v>0.19248886690576891</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.23471327847536944</c:v>
+                  <c:v>0.16368343908624333</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20687699523442471</c:v>
+                  <c:v>0.13590025030503822</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.17803407393344145</c:v>
+                  <c:v>0.11016716209679217</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.14959271699381124</c:v>
+                  <c:v>8.7196782054037192E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.12272531645428605</c:v>
+                  <c:v>6.738529650737371E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.830469525924955E-2</c:v>
+                  <c:v>5.0844762104157684E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.6883076244908186E-2</c:v>
+                  <c:v>3.745792241744314E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.8708858041648528E-2</c:v>
+                  <c:v>2.6943719097855361E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.3771648593338271E-2</c:v>
+                  <c:v>1.8922904106259526E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.1863873201770761E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.2647518159020292E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.5716616570980467E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0649124139420893E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.0450667383511537E-3</c:v>
+                  <c:v>1.2975808429533262E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,7 +741,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -993,246 +924,222 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$X$27:$X$64</c:f>
+              <c:f>Лист1!$X$27:$X$60</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>-3.2</c:v>
+                  <c:v>-2.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-3</c:v>
+                  <c:v>-2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.8</c:v>
+                  <c:v>-2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.6</c:v>
+                  <c:v>-2.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-2.4</c:v>
+                  <c:v>-1.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.2000000000000002</c:v>
+                  <c:v>-1.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.8</c:v>
+                  <c:v>-1.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6</c:v>
+                  <c:v>-1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.4</c:v>
+                  <c:v>-0.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.2</c:v>
+                  <c:v>-0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-1</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.8</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.6</c:v>
+                  <c:v>-0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.4</c:v>
+                  <c:v>9.9999999999999603E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.4</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.6</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.8</c:v>
+                  <c:v>1.3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.2</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.4</c:v>
+                  <c:v>1.9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.6</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.8</c:v>
+                  <c:v>2.2999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4</c:v>
+                  <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.6000000000000099</c:v>
+                  <c:v>3.1000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.80000000000001</c:v>
+                  <c:v>3.30000000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.0000000000000102</c:v>
+                  <c:v>3.5000000000000102</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2000000000000099</c:v>
+                  <c:v>3.7000000000000099</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.4000000000000101</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.6000000000000099</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.0000000000000098</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4.2000000000000099</c:v>
+                  <c:v>3.9000000000000101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$Y$27:$Y$64</c:f>
+              <c:f>Лист1!$Y$27:$Y$60</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="38"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>1.4797752003345842E-3</c:v>
+                  <c:v>4.8640975002065927E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4215952590511997E-3</c:v>
+                  <c:v>7.5344701106342402E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8763234203499789E-3</c:v>
+                  <c:v>1.1420248316701553E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0703032717636203E-3</c:v>
+                  <c:v>1.6941290656081538E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.3011795068286569E-3</c:v>
+                  <c:v>2.4600802473551679E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3946812806232129E-2</c:v>
+                  <c:v>3.4976518163920556E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0469198325881031E-2</c:v>
+                  <c:v>4.8700243250721205E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.9410586633015809E-2</c:v>
+                  <c:v>6.6424292355025435E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.137910563485709E-2</c:v>
+                  <c:v>8.8774979531057036E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.7021846568018106E-2</c:v>
+                  <c:v>0.11629544834158505</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.698468475542504E-2</c:v>
+                  <c:v>0.1493824793061887</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.10186000764860847</c:v>
+                  <c:v>0.18822405139442464</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.13212580950098685</c:v>
+                  <c:v>0.23274586429928898</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.16808191691711361</c:v>
+                  <c:v>0.28257529521218622</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.20979095648262694</c:v>
+                  <c:v>0.3370300824966817</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.25703257329385126</c:v>
+                  <c:v>0.3951363876625259</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.30927897254177811</c:v>
+                  <c:v>0.45567709831725417</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.3656979266583219</c:v>
+                  <c:v>0.51726690343120518</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.42518611663844974</c:v>
+                  <c:v>0.57844658430613394</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.48643152567565989</c:v>
+                  <c:v>0.63778591541695984</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54799929031476147</c:v>
+                  <c:v>0.69398317603714288</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.60843175323499266</c:v>
+                  <c:v>0.74594982388624742</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.66635118119265047</c:v>
+                  <c:v>0.79287126195591373</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.72055317879336322</c:v>
+                  <c:v>0.83423835219504638</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.77008033331506143</c:v>
+                  <c:v>0.86984865575006065</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.81426875738059912</c:v>
+                  <c:v>0.89978049560402995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.85276432208826303</c:v>
+                  <c:v>0.9243461408901521</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.88550969310260674</c:v>
+                  <c:v>0.94403225313618488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91270701660210896</c:v>
+                  <c:v>0.95943608406994108</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.93476366094501662</c:v>
+                  <c:v>0.97120494750696551</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.95222951091050245</c:v>
+                  <c:v>0.97998459914347824</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.96573396429131564</c:v>
+                  <c:v>0.98637984155305569</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.9759292941641361</c:v>
+                  <c:v>0.99092839904477947</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.98344487460792285</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.98885441953259101</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.99265627741477613</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.99526524059560983</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.99701338348729185</c:v>
+                  <c:v>0.99408723665148468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1368,7 +1275,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2649,103 +2556,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Лист1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="49">
-          <cell r="X49">
-            <v>0.02</v>
-          </cell>
-          <cell r="Y49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="X50">
-            <v>2.4E-2</v>
-          </cell>
-          <cell r="Y50">
-            <v>0.09</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="X51">
-            <v>2.8000000000000001E-2</v>
-          </cell>
-          <cell r="Y51">
-            <v>0.2</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="X52">
-            <v>3.2000000000000001E-2</v>
-          </cell>
-          <cell r="Y52">
-            <v>0.32</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="X53">
-            <v>3.5999999999999997E-2</v>
-          </cell>
-          <cell r="Y53">
-            <v>0.45</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="X54">
-            <v>0.04</v>
-          </cell>
-          <cell r="Y54">
-            <v>0.61</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="X55">
-            <v>4.3999999999999997E-2</v>
-          </cell>
-          <cell r="Y55">
-            <v>0.72</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="X56">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-          <cell r="Y56">
-            <v>0.82</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="X57">
-            <v>5.1999999999999998E-2</v>
-          </cell>
-          <cell r="Y57">
-            <v>0.92</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="X58">
-            <v>5.6000000000000001E-2</v>
-          </cell>
-          <cell r="Y58">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3047,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC0790F-B4C4-4600-9B78-B849EA6A8823}">
   <dimension ref="A1:AB64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3239,7 +3049,7 @@
         <v>8</v>
       </c>
       <c r="AB9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
@@ -3247,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="AB11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
@@ -3302,58 +3112,52 @@
       <c r="F18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>25</v>
+      <c r="I18" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="3:25" x14ac:dyDescent="0.3">
       <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7">
-        <f>0.644-3*1.293</f>
-        <v>-3.2349999999999994</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7">
-        <f>0.644+3*1.293</f>
-        <v>4.5229999999999997</v>
-      </c>
-      <c r="J19" s="8"/>
+      <c r="G19" s="2">
+        <f>B14-3*B16</f>
+        <v>-2.6583082836101171</v>
+      </c>
+      <c r="I19" s="2">
+        <f>B14+3*B16</f>
+        <v>3.9463082836101173</v>
+      </c>
+      <c r="J19" s="7"/>
     </row>
     <row r="20" spans="3:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12">
-        <v>-3.2</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="J20" s="16"/>
+      <c r="C20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10">
+        <v>-2.7</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="3:25" x14ac:dyDescent="0.3">
       <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
@@ -3369,1293 +3173,731 @@
     </row>
     <row r="22" spans="3:25" x14ac:dyDescent="0.3">
       <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="8"/>
+      <c r="Y22" s="7"/>
     </row>
     <row r="23" spans="3:25" x14ac:dyDescent="0.3">
       <c r="H23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="N23" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="8"/>
+      <c r="Y23" s="7"/>
     </row>
     <row r="24" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G24" s="2"/>
       <c r="H24" s="6">
-        <v>-3.2</v>
-      </c>
-      <c r="I24" s="9">
+        <v>-2.7</v>
+      </c>
+      <c r="I24" s="2">
         <f>1/(SQRT(2*PI())*SQRT(1.673))*EXP(-((H24-0.644)^2/(2*1.673)))</f>
-        <v>3.7261964282331887E-3</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="8"/>
+        <v>1.0908107709772684E-2</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="Y24" s="7"/>
     </row>
     <row r="25" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G25" s="2"/>
       <c r="H25" s="6">
-        <v>-3</v>
-      </c>
-      <c r="I25" s="9">
+        <v>-2.5</v>
+      </c>
+      <c r="I25" s="2">
         <f t="shared" ref="I25:I61" si="2">1/(SQRT(2*PI())*SQRT(1.673))*EXP(-((H25-0.644)^2/(2*1.673)))</f>
-        <v>5.8297096016993229E-3</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="8"/>
+        <v>1.6075762055329006E-2</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="Y25" s="7"/>
     </row>
     <row r="26" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G26" s="2"/>
       <c r="H26" s="6">
-        <v>-2.8</v>
-      </c>
-      <c r="I26" s="9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="I26" s="2">
         <f t="shared" si="2"/>
-        <v>8.9052166180639079E-3</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y26" s="8" t="s">
-        <v>28</v>
+        <v>2.313183635603944E-2</v>
+      </c>
+      <c r="J26" s="2"/>
+      <c r="X26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G27" s="2"/>
       <c r="H27" s="6">
-        <v>-2.6</v>
-      </c>
-      <c r="I27" s="9">
+        <v>-2.1</v>
+      </c>
+      <c r="I27" s="2">
         <f t="shared" si="2"/>
-        <v>1.3281846133132826E-2</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="7">
-        <v>-3.2</v>
-      </c>
-      <c r="Y27" s="10">
+        <v>3.249862924418323E-2</v>
+      </c>
+      <c r="J27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27">
+        <v>-2.7</v>
+      </c>
+      <c r="Y27" s="8">
         <f>_xlfn.NORM.S.DIST((X27-0.644)/SQRT(1.673), TRUE)</f>
-        <v>1.4797752003345842E-3</v>
+        <v>4.8640975002065927E-3</v>
       </c>
     </row>
     <row r="28" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G28" s="2"/>
       <c r="H28" s="6">
-        <v>-2.4</v>
-      </c>
-      <c r="I28" s="9">
+        <v>-1.9</v>
+      </c>
+      <c r="I28" s="2">
         <f t="shared" si="2"/>
-        <v>1.9341439408112327E-2</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="7">
-        <v>-3</v>
-      </c>
-      <c r="Y28" s="10">
+        <v>4.4579620338978013E-2</v>
+      </c>
+      <c r="J28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28">
+        <v>-2.5</v>
+      </c>
+      <c r="Y28" s="8">
         <f t="shared" ref="Y28:Y64" si="3">_xlfn.NORM.S.DIST((X28-0.644)/SQRT(1.673), TRUE)</f>
-        <v>2.4215952590511997E-3</v>
+        <v>7.5344701106342402E-3</v>
       </c>
     </row>
     <row r="29" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G29" s="2"/>
       <c r="H29" s="6">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="I29" s="9">
+        <v>-1.7</v>
+      </c>
+      <c r="I29" s="2">
         <f t="shared" si="2"/>
-        <v>2.7500179496219471E-2</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="7">
-        <v>-2.8</v>
-      </c>
-      <c r="Y29" s="10">
+        <v>5.9706838791224875E-2</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="Y29" s="8">
         <f t="shared" si="3"/>
-        <v>3.8763234203499789E-3</v>
+        <v>1.1420248316701553E-2</v>
       </c>
     </row>
     <row r="30" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G30" s="2"/>
       <c r="H30" s="6">
-        <v>-2</v>
-      </c>
-      <c r="I30" s="9">
+        <v>-1.5</v>
+      </c>
+      <c r="I30" s="2">
         <f t="shared" si="2"/>
-        <v>3.8176723773211671E-2</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="7">
-        <v>-2.6</v>
-      </c>
-      <c r="Y30" s="10">
+        <v>7.8077910141273507E-2</v>
+      </c>
+      <c r="J30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30">
+        <v>-2.1</v>
+      </c>
+      <c r="Y30" s="8">
         <f t="shared" si="3"/>
-        <v>6.0703032717636203E-3</v>
+        <v>1.6941290656081538E-2</v>
       </c>
     </row>
     <row r="31" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G31" s="2"/>
       <c r="H31" s="6">
-        <v>-1.8</v>
-      </c>
-      <c r="I31" s="9">
+        <v>-1.3</v>
+      </c>
+      <c r="I31" s="2">
         <f t="shared" si="2"/>
-        <v>5.17461654670524E-2</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="7">
-        <v>-2.4</v>
-      </c>
-      <c r="Y31" s="10">
+        <v>9.9689329042548611E-2</v>
+      </c>
+      <c r="J31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31">
+        <v>-1.9</v>
+      </c>
+      <c r="Y31" s="8">
         <f t="shared" si="3"/>
-        <v>9.3011795068286569E-3</v>
+        <v>2.4600802473551679E-2</v>
       </c>
     </row>
     <row r="32" spans="3:25" x14ac:dyDescent="0.3">
       <c r="G32" s="2"/>
       <c r="H32" s="6">
-        <v>-1.6</v>
-      </c>
-      <c r="I32" s="9">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="I32" s="2">
         <f t="shared" si="2"/>
-        <v>6.8481628653106294E-2</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="7">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="Y32" s="10">
+        <v>0.12427551049533855</v>
+      </c>
+      <c r="J32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32">
+        <v>-1.7</v>
+      </c>
+      <c r="Y32" s="8">
         <f t="shared" si="3"/>
-        <v>1.3946812806232129E-2</v>
+        <v>3.4976518163920556E-2</v>
       </c>
     </row>
     <row r="33" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G33" s="2"/>
       <c r="H33" s="6">
-        <v>-1.4</v>
-      </c>
-      <c r="I33" s="9">
+        <v>-0.9</v>
+      </c>
+      <c r="I33" s="2">
         <f t="shared" si="2"/>
-        <v>8.848840721488796E-2</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="7">
-        <v>-2</v>
-      </c>
-      <c r="Y33" s="10">
+        <v>0.15126513132105585</v>
+      </c>
+      <c r="J33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33">
+        <v>-1.5</v>
+      </c>
+      <c r="Y33" s="8">
         <f t="shared" si="3"/>
-        <v>2.0469198325881031E-2</v>
+        <v>4.8700243250721205E-2</v>
       </c>
     </row>
     <row r="34" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G34" s="2"/>
       <c r="H34" s="6">
-        <v>-1.2</v>
-      </c>
-      <c r="I34" s="9">
+        <v>-0.7</v>
+      </c>
+      <c r="I34" s="2">
         <f t="shared" si="2"/>
-        <v>0.11163877583554221</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="7">
-        <v>-1.8</v>
-      </c>
-      <c r="Y34" s="10">
+        <v>0.17976638779756962</v>
+      </c>
+      <c r="J34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34">
+        <v>-1.3</v>
+      </c>
+      <c r="Y34" s="8">
         <f t="shared" si="3"/>
-        <v>2.9410586633015809E-2</v>
+        <v>6.6424292355025435E-2</v>
       </c>
     </row>
     <row r="35" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G35" s="2"/>
       <c r="H35" s="6">
-        <v>-1</v>
-      </c>
-      <c r="I35" s="9">
+        <v>-0.5</v>
+      </c>
+      <c r="I35" s="2">
         <f t="shared" si="2"/>
-        <v>0.13751818871003188</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="7">
-        <v>-1.6</v>
-      </c>
-      <c r="Y35" s="10">
+        <v>0.20859050959726977</v>
+      </c>
+      <c r="J35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="Y35" s="8">
         <f t="shared" si="3"/>
-        <v>4.137910563485709E-2</v>
+        <v>8.8774979531057036E-2</v>
       </c>
     </row>
     <row r="36" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G36" s="2"/>
       <c r="H36" s="6">
-        <v>-0.8</v>
-      </c>
-      <c r="I36" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="I36" s="2">
         <f t="shared" si="2"/>
-        <v>0.1653947087089164</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="7">
-        <v>-1.4</v>
-      </c>
-      <c r="Y36" s="10">
+        <v>0.23631810123430055</v>
+      </c>
+      <c r="J36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36">
+        <v>-0.9</v>
+      </c>
+      <c r="Y36" s="8">
         <f t="shared" si="3"/>
-        <v>5.7021846568018106E-2</v>
+        <v>0.11629544834158505</v>
       </c>
     </row>
     <row r="37" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G37" s="2"/>
       <c r="H37" s="6">
-        <v>-0.6</v>
-      </c>
-      <c r="I37" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="I37" s="2">
         <f t="shared" si="2"/>
-        <v>0.19422246857158978</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="7">
-        <v>-1.2</v>
-      </c>
-      <c r="Y37" s="10">
+        <v>0.26140616278275097</v>
+      </c>
+      <c r="J37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37">
+        <v>-0.7</v>
+      </c>
+      <c r="Y37" s="8">
         <f t="shared" si="3"/>
-        <v>7.698468475542504E-2</v>
+        <v>0.1493824793061887</v>
       </c>
     </row>
     <row r="38" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G38" s="2"/>
       <c r="H38" s="6">
-        <v>-0.4</v>
-      </c>
-      <c r="I38" s="9">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="I38" s="2">
         <f t="shared" si="2"/>
-        <v>0.22268641211197482</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="7">
-        <v>-1</v>
-      </c>
-      <c r="Y38" s="10">
+        <v>0.28232611096906557</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38">
+        <v>-0.5</v>
+      </c>
+      <c r="Y38" s="8">
         <f t="shared" si="3"/>
-        <v>0.10186000764860847</v>
+        <v>0.18822405139442464</v>
       </c>
     </row>
     <row r="39" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G39" s="2"/>
       <c r="H39" s="6">
-        <v>-0.2</v>
-      </c>
-      <c r="I39" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="I39" s="2">
         <f t="shared" si="2"/>
-        <v>0.24928971238104491</v>
-      </c>
-      <c r="J39" s="9"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="7">
-        <v>-0.8</v>
-      </c>
-      <c r="Y39" s="10">
+        <v>0.29771633200277886</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="W39" s="2"/>
+      <c r="X39">
+        <v>-0.3</v>
+      </c>
+      <c r="Y39" s="8">
         <f t="shared" si="3"/>
-        <v>0.13212580950098685</v>
+        <v>0.23274586429928898</v>
       </c>
     </row>
     <row r="40" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G40" s="2"/>
       <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="2">
         <f t="shared" si="2"/>
-        <v>0.27247796378248756</v>
-      </c>
-      <c r="J40" s="9"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="7">
-        <v>-0.6</v>
-      </c>
-      <c r="Y40" s="10">
+        <v>0.30652836143545281</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40">
+        <v>-0.1</v>
+      </c>
+      <c r="Y40" s="8">
         <f t="shared" si="3"/>
-        <v>0.16808191691711361</v>
+        <v>0.28257529521218622</v>
       </c>
     </row>
     <row r="41" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G41" s="2"/>
       <c r="H41" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="I41" s="9">
+        <v>0.7</v>
+      </c>
+      <c r="I41" s="2">
         <f t="shared" si="2"/>
-        <v>0.29078687747949916</v>
-      </c>
-      <c r="J41" s="9"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="7">
-        <v>-0.4</v>
-      </c>
-      <c r="Y41" s="10">
+        <v>0.30814495219710408</v>
+      </c>
+      <c r="J41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41">
+        <v>9.9999999999999603E-2</v>
+      </c>
+      <c r="Y41" s="8">
         <f t="shared" si="3"/>
-        <v>0.20979095648262694</v>
+        <v>0.3370300824966817</v>
       </c>
     </row>
     <row r="42" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G42" s="2"/>
       <c r="H42" s="6">
-        <v>0.4</v>
-      </c>
-      <c r="I42" s="9">
+        <v>0.9</v>
+      </c>
+      <c r="I42" s="2">
         <f t="shared" si="2"/>
-        <v>0.30299440769336838</v>
-      </c>
-      <c r="J42" s="9"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="7">
-        <v>-0.2</v>
-      </c>
-      <c r="Y42" s="10">
+        <v>0.3024515692462334</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42">
+        <v>0.3</v>
+      </c>
+      <c r="Y42" s="8">
         <f t="shared" si="3"/>
-        <v>0.25703257329385126</v>
+        <v>0.3951363876625259</v>
       </c>
     </row>
     <row r="43" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G43" s="2"/>
       <c r="H43" s="6">
-        <v>0.6</v>
-      </c>
-      <c r="I43" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I43" s="2">
         <f t="shared" si="2"/>
-        <v>0.30825548425266469</v>
-      </c>
-      <c r="J43" s="9"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="9"/>
-      <c r="X43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="10">
+        <v>0.28984980773114688</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43">
+        <v>0.5</v>
+      </c>
+      <c r="Y43" s="8">
         <f t="shared" si="3"/>
-        <v>0.30927897254177811</v>
+        <v>0.45567709831725417</v>
       </c>
     </row>
     <row r="44" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G44" s="2"/>
       <c r="H44" s="6">
-        <v>0.8</v>
-      </c>
-      <c r="I44" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="I44" s="2">
         <f t="shared" si="2"/>
-        <v>0.30619874138802611</v>
-      </c>
-      <c r="J44" s="9"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="Y44" s="10">
+        <v>0.27121055113019416</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44">
+        <v>0.7</v>
+      </c>
+      <c r="Y44" s="8">
         <f t="shared" si="3"/>
-        <v>0.3656979266583219</v>
+        <v>0.51726690343120518</v>
       </c>
     </row>
     <row r="45" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G45" s="2"/>
       <c r="H45" s="6">
-        <v>1</v>
-      </c>
-      <c r="I45" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I45" s="2">
         <f t="shared" si="2"/>
-        <v>0.29696986436590961</v>
-      </c>
-      <c r="J45" s="9"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="9"/>
-      <c r="X45" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="Y45" s="10">
+        <v>0.24777445869307557</v>
+      </c>
+      <c r="J45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45">
+        <v>0.9</v>
+      </c>
+      <c r="Y45" s="8">
         <f t="shared" si="3"/>
-        <v>0.42518611663844974</v>
+        <v>0.57844658430613394</v>
       </c>
     </row>
     <row r="46" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G46" s="2"/>
       <c r="H46" s="6">
-        <v>1.2</v>
-      </c>
-      <c r="I46" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="I46" s="2">
         <f t="shared" si="2"/>
-        <v>0.28121452597799629</v>
-      </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="Y46" s="10">
+        <v>0.22101557570410668</v>
+      </c>
+      <c r="J46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y46" s="8">
         <f t="shared" si="3"/>
-        <v>0.48643152567565989</v>
+        <v>0.63778591541695984</v>
       </c>
     </row>
     <row r="47" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G47" s="2"/>
       <c r="H47" s="6">
-        <v>1.4</v>
-      </c>
-      <c r="I47" s="9">
+        <v>1.9</v>
+      </c>
+      <c r="I47" s="2">
         <f t="shared" si="2"/>
-        <v>0.26000368897855969</v>
-      </c>
-      <c r="J47" s="9"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="9"/>
-      <c r="X47" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Y47" s="10">
+        <v>0.19248886690576891</v>
+      </c>
+      <c r="J47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47">
+        <v>1.3</v>
+      </c>
+      <c r="Y47" s="8">
         <f t="shared" si="3"/>
-        <v>0.54799929031476147</v>
+        <v>0.69398317603714288</v>
       </c>
     </row>
     <row r="48" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G48" s="2"/>
       <c r="H48" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="I48" s="9">
+        <v>2.1</v>
+      </c>
+      <c r="I48" s="2">
         <f t="shared" si="2"/>
-        <v>0.23471327847536944</v>
-      </c>
-      <c r="J48" s="9"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y48" s="10">
+        <v>0.16368343908624333</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48">
+        <v>1.5</v>
+      </c>
+      <c r="Y48" s="8">
         <f t="shared" si="3"/>
-        <v>0.60843175323499266</v>
+        <v>0.74594982388624742</v>
       </c>
     </row>
     <row r="49" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G49" s="2"/>
       <c r="H49" s="6">
-        <v>1.8</v>
-      </c>
-      <c r="I49" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I49" s="2">
         <f t="shared" si="2"/>
-        <v>0.20687699523442471</v>
-      </c>
-      <c r="J49" s="9"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="9"/>
-      <c r="X49" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="Y49" s="10">
+        <v>0.13590025030503822</v>
+      </c>
+      <c r="J49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49">
+        <v>1.7</v>
+      </c>
+      <c r="Y49" s="8">
         <f t="shared" si="3"/>
-        <v>0.66635118119265047</v>
+        <v>0.79287126195591373</v>
       </c>
     </row>
     <row r="50" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G50" s="2"/>
       <c r="H50" s="6">
-        <v>2</v>
-      </c>
-      <c r="I50" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="I50" s="2">
         <f t="shared" si="2"/>
-        <v>0.17803407393344145</v>
-      </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="Y50" s="10">
+        <v>0.11016716209679217</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50">
+        <v>1.9</v>
+      </c>
+      <c r="Y50" s="8">
         <f t="shared" si="3"/>
-        <v>0.72055317879336322</v>
+        <v>0.83423835219504638</v>
       </c>
     </row>
     <row r="51" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G51" s="2"/>
       <c r="H51" s="6">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="I51" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="I51" s="2">
         <f t="shared" si="2"/>
-        <v>0.14959271699381124</v>
-      </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="9"/>
-      <c r="X51" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="Y51" s="10">
+        <v>8.7196782054037192E-2</v>
+      </c>
+      <c r="J51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51">
+        <v>2.1</v>
+      </c>
+      <c r="Y51" s="8">
         <f t="shared" si="3"/>
-        <v>0.77008033331506143</v>
+        <v>0.86984865575006065</v>
       </c>
     </row>
     <row r="52" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G52" s="2"/>
       <c r="H52" s="6">
-        <v>2.4</v>
-      </c>
-      <c r="I52" s="9">
+        <v>2.9</v>
+      </c>
+      <c r="I52" s="2">
         <f t="shared" si="2"/>
-        <v>0.12272531645428605</v>
-      </c>
-      <c r="J52" s="9"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="Y52" s="10">
+        <v>6.738529650737371E-2</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Y52" s="8">
         <f t="shared" si="3"/>
-        <v>0.81426875738059912</v>
+        <v>0.89978049560402995</v>
       </c>
     </row>
     <row r="53" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G53" s="2"/>
       <c r="H53" s="6">
-        <v>2.6000000000000099</v>
-      </c>
-      <c r="I53" s="9">
+        <v>3.1000000000000099</v>
+      </c>
+      <c r="I53" s="2">
         <f t="shared" si="2"/>
-        <v>9.830469525924955E-2</v>
-      </c>
-      <c r="J53" s="9"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="7">
-        <v>2</v>
-      </c>
-      <c r="Y53" s="10">
+        <v>5.0844762104157684E-2</v>
+      </c>
+      <c r="J53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53">
+        <v>2.5</v>
+      </c>
+      <c r="Y53" s="8">
         <f t="shared" si="3"/>
-        <v>0.85276432208826303</v>
+        <v>0.9243461408901521</v>
       </c>
     </row>
     <row r="54" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G54" s="2"/>
       <c r="H54" s="6">
-        <v>2.80000000000001</v>
-      </c>
-      <c r="I54" s="9">
+        <v>3.30000000000001</v>
+      </c>
+      <c r="I54" s="2">
         <f t="shared" si="2"/>
-        <v>7.6883076244908186E-2</v>
-      </c>
-      <c r="J54" s="9"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="7">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="Y54" s="10">
+        <v>3.745792241744314E-2</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54">
+        <v>2.7</v>
+      </c>
+      <c r="Y54" s="8">
         <f t="shared" si="3"/>
-        <v>0.88550969310260674</v>
+        <v>0.94403225313618488</v>
       </c>
     </row>
     <row r="55" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G55" s="2"/>
       <c r="H55" s="6">
-        <v>3.0000000000000102</v>
-      </c>
-      <c r="I55" s="9">
+        <v>3.5000000000000102</v>
+      </c>
+      <c r="I55" s="2">
         <f t="shared" si="2"/>
-        <v>5.8708858041648528E-2</v>
-      </c>
-      <c r="J55" s="9"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="9"/>
-      <c r="X55" s="7">
-        <v>2.4</v>
-      </c>
-      <c r="Y55" s="10">
+        <v>2.6943719097855361E-2</v>
+      </c>
+      <c r="J55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55">
+        <v>2.9</v>
+      </c>
+      <c r="Y55" s="8">
         <f t="shared" si="3"/>
-        <v>0.91270701660210896</v>
+        <v>0.95943608406994108</v>
       </c>
     </row>
     <row r="56" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G56" s="2"/>
       <c r="H56" s="6">
-        <v>3.2000000000000099</v>
-      </c>
-      <c r="I56" s="9">
+        <v>3.7000000000000099</v>
+      </c>
+      <c r="I56" s="2">
         <f t="shared" si="2"/>
-        <v>4.3771648593338271E-2</v>
-      </c>
-      <c r="J56" s="9"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="7">
-        <v>2.6000000000000099</v>
-      </c>
-      <c r="Y56" s="10">
+        <v>1.8922904106259526E-2</v>
+      </c>
+      <c r="J56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56">
+        <v>3.1000000000000099</v>
+      </c>
+      <c r="Y56" s="8">
         <f t="shared" si="3"/>
-        <v>0.93476366094501662</v>
+        <v>0.97120494750696551</v>
       </c>
     </row>
     <row r="57" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G57" s="2"/>
       <c r="H57" s="6">
-        <v>3.4000000000000101</v>
-      </c>
-      <c r="I57" s="9">
+        <v>3.9000000000000101</v>
+      </c>
+      <c r="I57" s="2">
         <f t="shared" si="2"/>
-        <v>3.1863873201770761E-2</v>
-      </c>
-      <c r="J57" s="9"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="9"/>
-      <c r="X57" s="7">
-        <v>2.80000000000001</v>
-      </c>
-      <c r="Y57" s="10">
+        <v>1.2975808429533262E-2</v>
+      </c>
+      <c r="J57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57">
+        <v>3.30000000000001</v>
+      </c>
+      <c r="Y57" s="8">
         <f t="shared" si="3"/>
-        <v>0.95222951091050245</v>
+        <v>0.97998459914347824</v>
       </c>
     </row>
     <row r="58" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G58" s="2"/>
-      <c r="H58" s="6">
-        <v>3.6000000000000099</v>
-      </c>
-      <c r="I58" s="9">
-        <f t="shared" si="2"/>
-        <v>2.2647518159020292E-2</v>
-      </c>
-      <c r="J58" s="9"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="9"/>
-      <c r="X58" s="7">
-        <v>3.0000000000000102</v>
-      </c>
-      <c r="Y58" s="10">
+      <c r="H58" s="6"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58">
+        <v>3.5000000000000102</v>
+      </c>
+      <c r="Y58" s="8">
         <f t="shared" si="3"/>
-        <v>0.96573396429131564</v>
+        <v>0.98637984155305569</v>
       </c>
     </row>
     <row r="59" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G59" s="2"/>
-      <c r="H59" s="6">
-        <v>3.80000000000001</v>
-      </c>
-      <c r="I59" s="9">
-        <f t="shared" si="2"/>
-        <v>1.5716616570980467E-2</v>
-      </c>
-      <c r="J59" s="9"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="9"/>
-      <c r="X59" s="7">
-        <v>3.2000000000000099</v>
-      </c>
-      <c r="Y59" s="10">
+      <c r="H59" s="6"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59">
+        <v>3.7000000000000099</v>
+      </c>
+      <c r="Y59" s="8">
         <f t="shared" si="3"/>
-        <v>0.9759292941641361</v>
+        <v>0.99092839904477947</v>
       </c>
     </row>
     <row r="60" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G60" s="2"/>
-      <c r="H60" s="6">
-        <v>4.0000000000000098</v>
-      </c>
-      <c r="I60" s="9">
-        <f t="shared" si="2"/>
-        <v>1.0649124139420893E-2</v>
-      </c>
-      <c r="J60" s="9"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="9"/>
-      <c r="X60" s="7">
-        <v>3.4000000000000101</v>
-      </c>
-      <c r="Y60" s="10">
+      <c r="H60" s="6"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60">
+        <v>3.9000000000000101</v>
+      </c>
+      <c r="Y60" s="8">
         <f t="shared" si="3"/>
-        <v>0.98344487460792285</v>
+        <v>0.99408723665148468</v>
       </c>
     </row>
     <row r="61" spans="7:25" x14ac:dyDescent="0.3">
       <c r="G61" s="2"/>
-      <c r="H61" s="6">
-        <v>4.2000000000000099</v>
-      </c>
-      <c r="I61" s="9">
-        <f t="shared" si="2"/>
-        <v>7.0450667383511537E-3</v>
-      </c>
-      <c r="J61" s="9"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="9"/>
-      <c r="X61" s="7">
-        <v>3.6000000000000099</v>
-      </c>
-      <c r="Y61" s="10">
-        <f t="shared" si="3"/>
-        <v>0.98885441953259101</v>
-      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="Y61" s="8"/>
     </row>
     <row r="62" spans="7:25" x14ac:dyDescent="0.3">
       <c r="H62" s="6"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="9"/>
-      <c r="X62" s="7">
-        <v>3.80000000000001</v>
-      </c>
-      <c r="Y62" s="10">
-        <f t="shared" si="3"/>
-        <v>0.99265627741477613</v>
-      </c>
+      <c r="W62" s="2"/>
+      <c r="Y62" s="8"/>
     </row>
     <row r="63" spans="7:25" x14ac:dyDescent="0.3">
       <c r="H63" s="6"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="9"/>
-      <c r="X63" s="7">
-        <v>4.0000000000000098</v>
-      </c>
-      <c r="Y63" s="10">
-        <f t="shared" si="3"/>
-        <v>0.99526524059560983</v>
-      </c>
+      <c r="W63" s="2"/>
+      <c r="Y63" s="8"/>
     </row>
     <row r="64" spans="7:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H64" s="11"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="13"/>
-      <c r="X64" s="12">
-        <v>4.2000000000000099</v>
-      </c>
-      <c r="Y64" s="14">
-        <f t="shared" si="3"/>
-        <v>0.99701338348729185</v>
-      </c>
+      <c r="H64" s="9"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="11"/>
+      <c r="Y64" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
